--- a/src/main/resources/files/jxls_test.xlsx
+++ b/src/main/resources/files/jxls_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3967A-6123-FF44-83B8-94639299863F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A3EB9-F7D5-AA4D-93D8-D4375DD194F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>D</t>
+          <t>K</t>
         </r>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>D</t>
+          <t>K</t>
         </r>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>${item.string}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,62 @@
   </si>
   <si>
     <t>ignore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.age}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.sex}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.city}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.province}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.ali}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.county}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,6 +256,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -309,12 +368,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,26 +714,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -677,12 +747,33 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -690,6 +781,27 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
